--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/17/word_level_predictions_17.xlsx
@@ -4662,210 +4662,210 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" t="n">
         <v>3</v>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" t="n">
         <v>16</v>
       </c>
-      <c r="E82" s="2" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>3</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" t="n">
         <v>17</v>
       </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
         <v>3</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" t="n">
         <v>18</v>
       </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" t="n">
         <v>3</v>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" t="n">
         <v>19</v>
       </c>
-      <c r="E85" s="2" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5546,210 +5546,210 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" t="n">
         <v>4</v>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" t="n">
         <v>5</v>
       </c>
-      <c r="E99" s="2" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" t="n">
         <v>4</v>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" t="n">
         <v>6</v>
       </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" t="n">
         <v>4</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" t="n">
         <v>7</v>
       </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" t="n">
         <v>4</v>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" t="n">
         <v>8</v>
       </c>
-      <c r="E102" s="2" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9342,208 +9342,208 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>6</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>32</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" t="n">
         <v>6</v>
       </c>
-      <c r="B173" s="2" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C173" s="2" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" t="n">
         <v>33</v>
       </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>6</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" t="n">
         <v>34</v>
       </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>6</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" t="n">
         <v>35</v>
       </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/17/word_level_predictions_17.xlsx
@@ -4662,210 +4662,210 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5546,210 +5546,210 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -9342,208 +9342,208 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K173" t="b">
-        <v>1</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
